--- a/similarities/split_global/harmonic_similarity_timestamps_338.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,506 +484,528 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:19.420000', '0:01:26.020000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>jaah_10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['Eb:7', 'Ab:7', 'Db:maj6', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:maj6', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000')]</t>
+          <t>('0:00:51.260000', '0:01:00.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+          <t>('0:01:20.790000', '0:01:34.430000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=51.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=80.79</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:19.200000', '0:00:21.840000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:04:13', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:17.680000', '0:01:31.180000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+          <t>('0:00:04.840000', '0:00:10.640000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=77.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
+          <t>('0:00:43.610000', '0:00:45.410000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:04.830000', '0:00:07.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:39.300000', '0:00:59.820000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=39.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['B:min7/4', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+          <t>('0:00:47.371000', '0:00:50.945000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+          <t>('0:00:40.450000', '0:00:45.420000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:04.860000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#:min', 'D#:7/A#', 'G#']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000'), ('0:00:40.400000', '0:00:43.340000')]</t>
+          <t>('0:00:10.953139', '0:00:28.356495')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:09.840000'), ('0:00:35.620000', '0:00:42.440000')]</t>
+          <t>('0:00:10.540000', '0:00:15.420000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=40.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=35.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:33.920000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:11.060000', '0:00:18.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=93.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=11.06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -991,195 +1013,205 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:01.340000', '0:00:08.860000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min/5', 'C:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.560000', '0:00:04.260000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:17.357000', '0:00:22.981000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:04.300000', '0:00:05.850000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:00:00.380000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=4.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:09.280000', '0:00:14.060000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:08.110136')]</t>
+          <t>('0:00:31.237210', '0:00:36.914489')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.23721</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
